--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Fzd6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>18.2185216464177</v>
+        <v>0.381694</v>
       </c>
       <c r="H2">
-        <v>18.2185216464177</v>
+        <v>1.145082</v>
       </c>
       <c r="I2">
-        <v>0.9709822297067873</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="J2">
-        <v>0.9709822297067873</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.1148605612457</v>
+        <v>13.877148</v>
       </c>
       <c r="N2">
-        <v>11.1148605612457</v>
+        <v>41.631444</v>
       </c>
       <c r="O2">
-        <v>0.9836137494541555</v>
+        <v>0.9551716529386821</v>
       </c>
       <c r="P2">
-        <v>0.9836137494541555</v>
+        <v>0.9551716529386822</v>
       </c>
       <c r="Q2">
-        <v>202.4963277319692</v>
+        <v>5.296824128712</v>
       </c>
       <c r="R2">
-        <v>202.4963277319692</v>
+        <v>47.671417158408</v>
       </c>
       <c r="S2">
-        <v>0.9550714716152491</v>
+        <v>0.01829368535841372</v>
       </c>
       <c r="T2">
-        <v>0.9550714716152491</v>
+        <v>0.01829368535841373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>18.2185216464177</v>
+        <v>0.381694</v>
       </c>
       <c r="H3">
-        <v>18.2185216464177</v>
+        <v>1.145082</v>
       </c>
       <c r="I3">
-        <v>0.9709822297067873</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="J3">
-        <v>0.9709822297067873</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.185165050854332</v>
+        <v>0.4259926666666667</v>
       </c>
       <c r="N3">
-        <v>0.185165050854332</v>
+        <v>1.277978</v>
       </c>
       <c r="O3">
-        <v>0.01638625054584459</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="P3">
-        <v>0.01638625054584459</v>
+        <v>0.02932130719941569</v>
       </c>
       <c r="Q3">
-        <v>3.373433487149681</v>
+        <v>0.1625988449106667</v>
       </c>
       <c r="R3">
-        <v>3.373433487149681</v>
+        <v>1.463389604196</v>
       </c>
       <c r="S3">
-        <v>0.01591075809153824</v>
+        <v>0.0005615689772128696</v>
       </c>
       <c r="T3">
-        <v>0.01591075809153824</v>
+        <v>0.0005615689772128696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.544459888186948</v>
+        <v>0.381694</v>
       </c>
       <c r="H4">
-        <v>0.544459888186948</v>
+        <v>1.145082</v>
       </c>
       <c r="I4">
-        <v>0.02901777029321264</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="J4">
-        <v>0.02901777029321264</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.1148605612457</v>
+        <v>0.225293</v>
       </c>
       <c r="N4">
-        <v>11.1148605612457</v>
+        <v>0.675879</v>
       </c>
       <c r="O4">
-        <v>0.9836137494541555</v>
+        <v>0.01550703986190206</v>
       </c>
       <c r="P4">
-        <v>0.9836137494541555</v>
+        <v>0.01550703986190207</v>
       </c>
       <c r="Q4">
-        <v>6.051595738389352</v>
+        <v>0.08599298634199999</v>
       </c>
       <c r="R4">
-        <v>6.051595738389352</v>
+        <v>0.773936877078</v>
       </c>
       <c r="S4">
-        <v>0.02854227783890629</v>
+        <v>0.0002969946890710615</v>
       </c>
       <c r="T4">
-        <v>0.02854227783890629</v>
+        <v>0.0002969946890710615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>18.95196233333333</v>
+      </c>
+      <c r="H5">
+        <v>56.855887</v>
+      </c>
+      <c r="I5">
+        <v>0.9509520770949769</v>
+      </c>
+      <c r="J5">
+        <v>0.9509520770949768</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.877148</v>
+      </c>
+      <c r="N5">
+        <v>41.631444</v>
+      </c>
+      <c r="O5">
+        <v>0.9551716529386821</v>
+      </c>
+      <c r="P5">
+        <v>0.9551716529386822</v>
+      </c>
+      <c r="Q5">
+        <v>262.999186190092</v>
+      </c>
+      <c r="R5">
+        <v>2366.992675710828</v>
+      </c>
+      <c r="S5">
+        <v>0.9083224673442821</v>
+      </c>
+      <c r="T5">
+        <v>0.9083224673442821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>18.95196233333333</v>
+      </c>
+      <c r="H6">
+        <v>56.855887</v>
+      </c>
+      <c r="I6">
+        <v>0.9509520770949769</v>
+      </c>
+      <c r="J6">
+        <v>0.9509520770949768</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.4259926666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.277978</v>
+      </c>
+      <c r="O6">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="P6">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="Q6">
+        <v>8.07339697294289</v>
+      </c>
+      <c r="R6">
+        <v>72.660572756486</v>
+      </c>
+      <c r="S6">
+        <v>0.02788315798442425</v>
+      </c>
+      <c r="T6">
+        <v>0.02788315798442425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>18.95196233333333</v>
+      </c>
+      <c r="H7">
+        <v>56.855887</v>
+      </c>
+      <c r="I7">
+        <v>0.9509520770949769</v>
+      </c>
+      <c r="J7">
+        <v>0.9509520770949768</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.225293</v>
+      </c>
+      <c r="N7">
+        <v>0.675879</v>
+      </c>
+      <c r="O7">
+        <v>0.01550703986190206</v>
+      </c>
+      <c r="P7">
+        <v>0.01550703986190207</v>
+      </c>
+      <c r="Q7">
+        <v>4.269744449963667</v>
+      </c>
+      <c r="R7">
+        <v>38.427700049673</v>
+      </c>
+      <c r="S7">
+        <v>0.01474645176627037</v>
+      </c>
+      <c r="T7">
+        <v>0.01474645176627037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04782733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.143482</v>
+      </c>
+      <c r="I8">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="J8">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13.877148</v>
+      </c>
+      <c r="N8">
+        <v>41.631444</v>
+      </c>
+      <c r="O8">
+        <v>0.9551716529386821</v>
+      </c>
+      <c r="P8">
+        <v>0.9551716529386822</v>
+      </c>
+      <c r="Q8">
+        <v>0.663706983112</v>
+      </c>
+      <c r="R8">
+        <v>5.973362848008001</v>
+      </c>
+      <c r="S8">
+        <v>0.002292250303992131</v>
+      </c>
+      <c r="T8">
+        <v>0.002292250303992132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04782733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.143482</v>
+      </c>
+      <c r="I9">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="J9">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4259926666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.277978</v>
+      </c>
+      <c r="O9">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="P9">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="Q9">
+        <v>0.02037409326622222</v>
+      </c>
+      <c r="R9">
+        <v>0.183366839396</v>
+      </c>
+      <c r="S9">
+        <v>7.036617463942053E-05</v>
+      </c>
+      <c r="T9">
+        <v>7.036617463942054E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04782733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.143482</v>
+      </c>
+      <c r="I10">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="J10">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.225293</v>
+      </c>
+      <c r="N10">
+        <v>0.675879</v>
+      </c>
+      <c r="O10">
+        <v>0.01550703986190206</v>
+      </c>
+      <c r="P10">
+        <v>0.01550703986190207</v>
+      </c>
+      <c r="Q10">
+        <v>0.01077516340866667</v>
+      </c>
+      <c r="R10">
+        <v>0.096976470678</v>
+      </c>
+      <c r="S10">
+        <v>3.72142710978725E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.721427109787251E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5479773333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.643932</v>
+      </c>
+      <c r="I11">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="J11">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>13.877148</v>
+      </c>
+      <c r="N11">
+        <v>41.631444</v>
+      </c>
+      <c r="O11">
+        <v>0.9551716529386821</v>
+      </c>
+      <c r="P11">
+        <v>0.9551716529386822</v>
+      </c>
+      <c r="Q11">
+        <v>7.604362555312</v>
+      </c>
+      <c r="R11">
+        <v>68.439262997808</v>
+      </c>
+      <c r="S11">
+        <v>0.02626324993199421</v>
+      </c>
+      <c r="T11">
+        <v>0.02626324993199421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.544459888186948</v>
-      </c>
-      <c r="H5">
-        <v>0.544459888186948</v>
-      </c>
-      <c r="I5">
-        <v>0.02901777029321264</v>
-      </c>
-      <c r="J5">
-        <v>0.02901777029321264</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.185165050854332</v>
-      </c>
-      <c r="N5">
-        <v>0.185165050854332</v>
-      </c>
-      <c r="O5">
-        <v>0.01638625054584459</v>
-      </c>
-      <c r="P5">
-        <v>0.01638625054584459</v>
-      </c>
-      <c r="Q5">
-        <v>0.1008149428842801</v>
-      </c>
-      <c r="R5">
-        <v>0.1008149428842801</v>
-      </c>
-      <c r="S5">
-        <v>0.0004754924543063485</v>
-      </c>
-      <c r="T5">
-        <v>0.0004754924543063485</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5479773333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.643932</v>
+      </c>
+      <c r="I12">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="J12">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.4259926666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.277978</v>
+      </c>
+      <c r="O12">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="P12">
+        <v>0.02932130719941569</v>
+      </c>
+      <c r="Q12">
+        <v>0.2334343254995556</v>
+      </c>
+      <c r="R12">
+        <v>2.100908929496</v>
+      </c>
+      <c r="S12">
+        <v>0.0008062140631391525</v>
+      </c>
+      <c r="T12">
+        <v>0.0008062140631391525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5479773333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.643932</v>
+      </c>
+      <c r="I13">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="J13">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.225293</v>
+      </c>
+      <c r="N13">
+        <v>0.675879</v>
+      </c>
+      <c r="O13">
+        <v>0.01550703986190206</v>
+      </c>
+      <c r="P13">
+        <v>0.01550703986190207</v>
+      </c>
+      <c r="Q13">
+        <v>0.1234554573586667</v>
+      </c>
+      <c r="R13">
+        <v>1.111099116228</v>
+      </c>
+      <c r="S13">
+        <v>0.0004263791354627601</v>
+      </c>
+      <c r="T13">
+        <v>0.0004263791354627601</v>
       </c>
     </row>
   </sheetData>
